--- a/biology/Botanique/Menuisier_en_sièges/Menuisier_en_sièges.xlsx
+++ b/biology/Botanique/Menuisier_en_sièges/Menuisier_en_sièges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Menuisier_en_si%C3%A8ges</t>
+          <t>Menuisier_en_sièges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parler de menuisier en sièges, c'est rappeler que cette corporation des menuisiers a évolué en fonction des techniques et des spécialisations.
 Le mot Menuisier apparaît, pour la première fois en 1382, dans les statuts règlementant la profession de Huchier-Menuisier. Cette ordonnance institue la réalisation d'un chef-d'œuvre pour accéder au statut de maître. À cette époque, les huchiers-menuisiers font partie de la corporation des charpentiers, qui a deux corps :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Menuisier_en_si%C3%A8ges</t>
+          <t>Menuisier_en_sièges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,11 +530,13 @@
           <t>Techniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 De par sa spécialité, le menuisier en sièges a le savoir-faire pour mener avec efficacité l’ensemble des opérations aboutissant à la réalisation d'un siège, dans tout le répertoire des styles français de mobilier. 
-Ce savoir-faire est d'ailleurs inscrit à l'Inventaire du patrimoine culturel immatériel en France[1].
+Ce savoir-faire est d'ailleurs inscrit à l'Inventaire du patrimoine culturel immatériel en France.
 La méthode est une base ancienne du XVIIIe siècle. La mise en technique date de la fin du XIXe siècle - début du XIXe siècle, avec l’arrivée de certaines machines-outils (d'abord mues par l’énergie hydraulique puis par l’énergie électrique) ; cette technique traditionnelle est encore pratiquée dans quelques rares ateliers actuellement. La différence avec le façonnier vient de l’exécution du travail : le menuisier en sièges en assure tous les stades, du traçage à la réalisation, alors que le façonnier l'exécute d’une façon plus intensive et répétitive, et est souvent limité par une régularité de travail et de technique. Les techniques des façonniers deviennent industrielles. Le geste est remplacé par des machines sophistiquées à des fins de rentabilité, pour répondre à l’exigence de séries importantes et très souvent simplifiées esthétiquement et techniquement.
 Pour réaliser un siège historique des époques XVIIIe siècle, les maîtres menuisiers en sièges comme les Séné, Boulard, Avisse, Heurtaut, etc. ont mis au point des étapes hiérarchisées par un savoir–faire reposant sur un système de « patrons », qui sont tous simplement des gabarits. Ces gabarits étaient l'apanage des meilleurs ateliers. 
 Les gabarits sont utilisés selon un ordonnancement codifié et ont une appellation précise pour chaque étape de travail. Patron, gabarit de calibrage, gabarit de contre-courbe, gabarit de forme, gabarit de contre-forme, gabarit de toupillage, gabarit de moulurage, gabarit de mortaisage, sont les principales règles de base pour réaliser la meilleure exécution de l’ouvrage de chaque pièce faisant partie de la membrure du siège.
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Menuisier_en_si%C3%A8ges</t>
+          <t>Menuisier_en_sièges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Étapes de fabrication d'un bois de siège</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'exécution d'un bois de siège (appelé fût ou carcasse) se fait par étapes, dont quelques-unes sont ici illustrées :
 			a) Toupillage sur gabarit
